--- a/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.275705054056148, 0.2208689431034171, 0.2446441446296424, 0.21965573342552783, 0.45039648787823416, 0.22322631753267497, 0.17829456991036335, 0.20361838270477414, 0.16864611601188503, 0.16274842939876874, 0.11244403587872488, 0.12681062917433916, 0.16820412158963902, 0.1725092612066047, 0.13052782616264305, 0.12997100497246106, 0.12184420457526338, 0.13471377414492197, 0.13825366197893893]</t>
+    <t>[1.0, 0.30237599728096964, 0.24218465485834614, 0.27410815183423765, 0.25513874014837684, 0.4669657394855553, 0.24733522757548726, 0.1944752928840054, 0.23746590281237834, 0.19977431858980044, 0.1945605552084176, 0.13098935671650389, 0.1383911102598105, 0.19585270706277116, 0.1955989684696984, 0.1531427091844605, 0.15607934026067333, 0.1394063095344178, 0.14903665562575663, 0.16778586445993193]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2739530517359736, 0.2224915077367662, 0.2536163616061678, 0.24307049246815776, 0.3371226102159966, 0.2013129362220637, 0.16768742913364268, 0.17404639480184256, 0.16401359531854975, 0.16960940966295726, 0.12399317532924053, 0.12755655395776289, 0.1341383400555717, 0.13251755700719617, 0.11120849860614665, 0.1308505205751499, 0.08973544661224055, 0.11059761629985555, 0.14218000607443212]</t>
+    <t>[1.0, 0.2892229777575205, 0.2425376463818646, 0.2758507447187141, 0.2617769154591766, 0.34882327875039787, 0.2128903348391278, 0.17993374273571347, 0.1968467281166908, 0.18774935300069656, 0.19100315638568155, 0.14099496173922071, 0.14030667199996075, 0.1576689547271237, 0.14672875698233195, 0.1301287465339835, 0.15562221153768904, 0.09649613656004367, 0.125133412563086, 0.15863811952239476]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.017954617471897607, -0.02269678883968538, -0.016664094552898457, -0.03995012981988733, 0.30743984014274184, 0.002661443544310895, 0.0008193156949588996, 0.0068745078158507795, -0.040667503721164365, -0.06303825613328595, -0.06975543440111025, -0.04480606904798816, -0.003656602177575346, 0.011974541158367274, -0.027434005015989013, -0.032327166946387646, -0.04714387313833362, -0.043138765816501695, -0.04973842852195918]</t>
+    <t>[1.0, 0.013975173888496657, -0.0350326619786444, -0.00875755399584605, -0.0368206033206963, 0.29944149515677704, -0.010123168244262766, -0.011702007603535855, 0.019347470666875675, -0.03292715904573919, -0.05839587936807164, -0.07740102520793839, -0.06022501727706532, -0.006741195556725514, 0.014011417363956608, -0.020798811241095314, -0.02481317469200009, -0.05120881899604175, -0.06273548458853136, -0.04338055386056814]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.016293295128490586, -0.022296880341892932, -0.016771700679996317, -0.04070812889552454, 0.3068440952239229, 0.003985903777195831, 0.002028727930121994, 0.007509245779219818, -0.040328067073641914, -0.06352310480717599, -0.06910382110981665, -0.044537964711827895, -0.002720803709117024, 0.01377814692061423, -0.02603552927779307, -0.03196739560762685, -0.047133636081276006, -0.0429014761511698, -0.04858436592152345]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.02845062759557058, -0.013212133038455878, 0.012091315094959683, -0.03250494283638258, 0.2469566830443298, 0.006053571416459681, -0.0019865960400446015, -0.005487518425938155, -0.04645540813986593, -0.035317120333900796, -0.05756204350142196, -0.03611024729303446, -0.015211551946075798, 0.011112813821146508, -0.040169679848970026, -0.03295441395979722, -0.037048078646522854, -0.03312443051899934, -0.034632428944231214]</t>
+    <t>[1.0, 0.01375426401571509, -0.034814428767388515, -0.00870144925032259, -0.03692035743757103, 0.29950961618291466, -0.009779334061821654, -0.01148855682729653, 0.019356383993622273, -0.033004067880131265, -0.058934078787601166, -0.07741875383981178, -0.06043646440267581, -0.006740112244389282, 0.014401611512009416, -0.02058280047067888, -0.024740679142091535, -0.051228246314968036, -0.0628300690287674, -0.04314532787565816]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.017383593523458682, -0.022132188568854946, 0.013217038015203048, -0.026054202167705275, 0.23495178609310788, -0.0081535301041223, -0.010042423485942767, 0.004483229686143032, -0.044259425602285865, -0.029461128600988876, -0.0690679571503173, -0.05341582454190929, -0.008774250307792702, 0.013899969311116539, -0.03930143259795254, -0.019268778574064872, -0.03586988819557108, -0.04565582640326065, -0.02564643797459133]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02613277658711496</v>
+        <v>-0.01403177878409627</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8301829873809643</v>
+        <v>0.8322473199251882</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>32.32452110185174</v>
+        <v>34.65089605793457</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9340717299578059</v>
+        <v>0.9434219495569189</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-1.648913426514714</v>
+        <v>-1.576957632985456</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7691280218622456</v>
+        <v>0.7790702448451842</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>25.88846556954054</v>
+        <v>27.26141873251629</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>1.467849337606879</v>
+        <v>1.438973502798857</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7692302244151693</v>
+        <v>0.780899905860917</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>21.98748635576831</v>
+        <v>24.3998919420025</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.004578046838512801</v>
+        <v>0.006651707337102347</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2711836398779733</v>
+        <v>0.2998353563667131</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1154968220522724</v>
+        <v>0.1380453368187803</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8845031787451064</v>
+        <v>0.8619546631832927</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.04900101981963107</v>
+        <v>-0.005992606524840025</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2796132217125263</v>
+        <v>0.300788763197276</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.09590111486823154</v>
+        <v>0.1311433819625628</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8837189556014422</v>
+        <v>0.8618197969154329</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0407598595947847</v>
+        <v>0.01407365119640938</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.06427563470148839</v>
+        <v>-0.02505925245946669</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2586096398149271</v>
+        <v>0.293231811634583</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1102726332407875</v>
+        <v>0.1421410966524452</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8860174228647901</v>
+        <v>0.8599586795188392</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.007419887593253347</v>
+        <v>-0.004199552308136415</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8077329722011638</v>
+        <v>0.8031892808210191</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.30237599728096964, 0.24218465485834614, 0.27410815183423765, 0.25513874014837684, 0.4669657394855553, 0.24733522757548726, 0.1944752928840054, 0.23746590281237834, 0.19977431858980044, 0.1945605552084176, 0.13098935671650389, 0.1383911102598105, 0.19585270706277116, 0.1955989684696984, 0.1531427091844605, 0.15607934026067333, 0.1394063095344178, 0.14903665562575663, 0.16778586445993193]</t>
+    <t>[0.9999999999999999, 0.02562816831403599, -0.06473359358270972, -0.08551161735630672, -0.08531476330581801, 0.0863416177961257, 0.022616504208740573, 0.03853118877700369, 0.04587237568491471, -0.002139168877255181, -0.02079972463942587, -0.05021462530082704, -0.05733000882239452, 0.013532331744224281, 0.08611254494226606, 0.0028074846081215885, -0.011158655111631069, -0.047232466496148366, -0.02468375501175664, -0.01739956055248122]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2892229777575205, 0.2425376463818646, 0.2758507447187141, 0.2617769154591766, 0.34882327875039787, 0.2128903348391278, 0.17993374273571347, 0.1968467281166908, 0.18774935300069656, 0.19100315638568155, 0.14099496173922071, 0.14030667199996075, 0.1576689547271237, 0.14672875698233195, 0.1301287465339835, 0.15562221153768904, 0.09649613656004367, 0.125133412563086, 0.15863811952239476]</t>
+    <t>[1.0, 0.07056668287085331, -0.020067523868945572, -0.023510646431827376, 0.009313353938934094, 0.04011340161391695, -0.006836439378172958, 0.00935751665841219, -0.001911791425266478, -0.024539884366682863, -0.004839997310232216, -0.009481277301696569, -0.02229988103688684, -0.02292065599292571, 0.019110836761371052, 0.004348848697662681, -0.005205494702985697, -0.04836938060319221, -0.004511300545584137, 0.01898771571660957]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.013975173888496657, -0.0350326619786444, -0.00875755399584605, -0.0368206033206963, 0.29944149515677704, -0.010123168244262766, -0.011702007603535855, 0.019347470666875675, -0.03292715904573919, -0.05839587936807164, -0.07740102520793839, -0.06022501727706532, -0.006741195556725514, 0.014011417363956608, -0.020798811241095314, -0.02481317469200009, -0.05120881899604175, -0.06273548458853136, -0.04338055386056814]</t>
+    <t>[1.0, 0.011247879761085263, -0.06299864758850016, -0.07190144356188069, -0.10338243902158446, 0.1004769435354579, 0.013697820983429658, 0.0287948861368788, 0.06088941770048124, 0.015836162447387184, -0.055893381317907685, -0.05125953952864348, -0.05724729631573349, 0.022141167853776227, 0.08781888311757843, 0.011550131154847718, -0.016252455264519038, -0.03919928374510832, -0.05056645656772844, -0.03775074619122891]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.01375426401571509, -0.034814428767388515, -0.00870144925032259, -0.03692035743757103, 0.29950961618291466, -0.009779334061821654, -0.01148855682729653, 0.019356383993622273, -0.033004067880131265, -0.058934078787601166, -0.07741875383981178, -0.06043646440267581, -0.006740112244389282, 0.014401611512009416, -0.02058280047067888, -0.024740679142091535, -0.051228246314968036, -0.0628300690287674, -0.04314532787565816]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.017383593523458682, -0.022132188568854946, 0.013217038015203048, -0.026054202167705275, 0.23495178609310788, -0.0081535301041223, -0.010042423485942767, 0.004483229686143032, -0.044259425602285865, -0.029461128600988876, -0.0690679571503173, -0.05341582454190929, -0.008774250307792702, 0.013899969311116539, -0.03930143259795254, -0.019268778574064872, -0.03586988819557108, -0.04565582640326065, -0.02564643797459133]</t>
+    <t>[1.0, 0.011679048482686551, -0.06036469505124449, -0.0717250945731754, -0.10340309290650686, 0.1007683208413346, 0.01215136090052689, 0.027800050377162162, 0.06129954739383657, 0.014602282831571134, -0.05547950722722275, -0.05143517987312567, -0.0556101731684857, 0.021731271506579483, 0.08679080188171523, 0.012559447323146723, -0.015969915741991924, -0.0404104804423034, -0.05232143061860133, -0.036894588088003825]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.0011163013921449026, -0.06361130523716504, -0.08430205860625888, -0.08794262397825933, 0.0895346808390797, 0.018577849378341994, 0.036797548140364726, 0.04558582266024879, -0.0038070266527379594, -0.02044937331667911, -0.04941918262412142, -0.056335536675284625, 0.012904348628622735, 0.08605150220830564, 0.0025501833924675096, -0.009760708297464293, -0.047258470573420426, -0.0261954886188416, -0.01653902268542312]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.01403177878409627</v>
+        <v>-0.0009957742384762028</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8322473199251882</v>
+        <v>0.7808667006718862</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>34.65089605793457</v>
+        <v>0.1062094442685016</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-1.576957632985456</v>
+        <v>-0.1901017084119081</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7790702448451842</v>
+        <v>0.5620286220926134</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>27.26141873251629</v>
+        <v>0.07157351391273913</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>1.438973502798857</v>
+        <v>0.1606608288492219</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.780899905860917</v>
+        <v>0.5982193211705331</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>24.3998919420025</v>
+        <v>0.05976853915506266</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.006651707337102347</v>
+        <v>-0.0004018072948923263</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2998353563667131</v>
+        <v>0.1153235563841152</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1380453368187803</v>
+        <v>0.03270380227550945</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8619546631832927</v>
+        <v>3.427989374063351E-07</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.005992606524840025</v>
+        <v>-0.001694176926069925</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.300788763197276</v>
+        <v>0.1156572388749257</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1311433819625628</v>
+        <v>3.726031878575412E-11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8618197969154329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.01407365119640938</v>
+        <v>0.05810480409792006</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02505925245946669</v>
+        <v>-0.001007300465803767</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.293231811634583</v>
+        <v>0.1036995315602178</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1421410966524452</v>
+        <v>2.054371562639695E-11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8599586795188392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>-0.004199552308136415</v>
+        <v>0.04483924486822021</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8031892808210191</v>
+        <v>0.7813370938224929</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.023781683251070027, -0.05126076078776284, -0.08397925701748647, -0.10196660083242316, 0.08909524821032956, 0.03401312378760361, 0.03733621569830663, 0.03847925174691787, -0.0019003482038673937, -0.013357060469150816, -0.036157439819186864, -0.03285931521984207, 0.01212549881081346, 0.06700783548339956, -0.00046325684408315417, -0.014141201910230177, -0.04253595402226662, -0.010285495771703007, -0.023668042695493323]</t>
+    <t>[1.0, 0.275705054056148, 0.2208689431034171, 0.2446441446296424, 0.21965573342552783, 0.45039648787823416, 0.22322631753267497, 0.17829456991036335, 0.20361838270477414, 0.16864611601188503, 0.16274842939876874, 0.11244403587872488, 0.12681062917433916, 0.16820412158963902, 0.1725092612066047, 0.13052782616264305, 0.12997100497246106, 0.12184420457526338, 0.13471377414492197, 0.13825366197893893]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.08005726119143378, -0.019243979197376866, -0.007463064344076742, 0.018104856333538047, 0.043639776067728196, 0.011866097588898322, -0.006427936587459839, 0.002021071042554495, -0.011662603412814316, 0.010784235793612583, -0.005733516414114995, -0.009619149189427646, -0.011445004403551782, 0.018461766501191836, 0.0043057368130320055, -0.006302407628733607, -0.04085479437146245, 0.005719962721080467, 0.024601968862108976]</t>
+    <t>[1.0, 0.2739530517359736, 0.2224915077367662, 0.2536163616061678, 0.24307049246815776, 0.3371226102159966, 0.2013129362220637, 0.16768742913364268, 0.17404639480184256, 0.16401359531854975, 0.16960940966295726, 0.12399317532924053, 0.12755655395776289, 0.1341383400555717, 0.13251755700719617, 0.11120849860614665, 0.1308505205751499, 0.08973544661224055, 0.11059761629985555, 0.14218000607443212]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[0.9999999999999998, 0.013698450321134021, -0.053196547120146445, -0.0751046283297165, -0.10607791500776007, 0.0986368890781501, 0.027343921885331027, 0.034294678541771054, 0.05526368923927335, 0.00916660121794389, -0.04791609344835188, -0.047759986243226214, -0.03832955340732581, 0.027307433201267977, 0.07789213604597384, 0.01125442116425401, -0.018583312681611227, -0.03535615254762608, -0.029484978156781135, -0.04513562958519348]</t>
+    <t>[1.0, 0.017954617471897607, -0.02269678883968538, -0.016664094552898457, -0.03995012981988733, 0.30743984014274184, 0.002661443544310895, 0.0008193156949588996, 0.0068745078158507795, -0.040667503721164365, -0.06303825613328595, -0.06975543440111025, -0.04480606904798816, -0.003656602177575346, 0.011974541158367274, -0.027434005015989013, -0.032327166946387646, -0.04714387313833362, -0.043138765816501695, -0.04973842852195918]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.015198801424925584, -0.05135074677201908, -0.0751150076050218, -0.10639668948488293, 0.09843806408288519, 0.026446957071345756, 0.033881228832093525, 0.056124134994229996, 0.008439776068437602, -0.04823315670139641, -0.04777933071062124, -0.03704908705808948, 0.027300913982831233, 0.07720204835411384, 0.012062788533674972, -0.01859739696646568, -0.035999038278784416, -0.030318982065933104, -0.044453028016279095]</t>
-  </si>
-  <si>
-    <t>[0.9999999999999998, 0.008930830676627326, -0.05000866880495707, -0.0831024773087158, -0.10341240745764159, 0.09109096683923551, 0.03183943598833418, 0.036529157042090935, 0.03865535153473585, -0.0025505855772698753, -0.013520518612900176, -0.03561181838589672, -0.031862122597714905, 0.011800774433337009, 0.06701713385284021, -0.0004882922505282571, -0.013508683525293842, -0.04266113983190826, -0.010964446927870844, -0.02370590224151947]</t>
+    <t>[1.0, 0.016293295128490586, -0.022296880341892932, -0.016771700679996317, -0.04070812889552454, 0.3068440952239229, 0.003985903777195831, 0.002028727930121994, 0.007509245779219818, -0.040328067073641914, -0.06352310480717599, -0.06910382110981665, -0.044537964711827895, -0.002720803709117024, 0.01377814692061423, -0.02603552927779307, -0.03196739560762685, -0.047133636081276006, -0.0429014761511698, -0.04858436592152345]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.02845062759557058, -0.013212133038455878, 0.012091315094959683, -0.03250494283638258, 0.2469566830443298, 0.006053571416459681, -0.0019865960400446015, -0.005487518425938155, -0.04645540813986593, -0.035317120333900796, -0.05756204350142196, -0.03611024729303446, -0.015211551946075798, 0.011112813821146508, -0.040169679848970026, -0.03295441395979722, -0.037048078646522854, -0.03312443051899934, -0.034632428944231214]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0003283780446995449</v>
+        <v>-0.02613277658711496</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.7786897187981846</v>
+        <v>0.8301829873809643</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.1095134723385434</v>
+        <v>32.32452110185174</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.1930403220602037</v>
+        <v>-1.648913426514714</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.5588818469680268</v>
+        <v>0.7691280218622456</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.07048626556510446</v>
+        <v>25.88846556954054</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1652716104812706</v>
+        <v>1.467849337606879</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.5921727355243664</v>
+        <v>0.7692302244151693</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -593,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.06457634198073428</v>
+        <v>21.98748635576831</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002574659202979738</v>
+        <v>-0.004578046838512801</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1193022775072654</v>
+        <v>0.2711836398779733</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.03075931015469471</v>
+        <v>0.1154968220522724</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8845031787451064</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001098514540935345</v>
+        <v>-0.04900101981963107</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -693,7 +693,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1195808519503234</v>
+        <v>0.2796132217125263</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -701,7 +701,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.008340045723467122</v>
+        <v>0.09590111486823154</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -709,7 +709,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>3.700630164787597E-09</v>
+        <v>0.8837189556014422</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -725,7 +725,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.03967855087389194</v>
+        <v>0.0407598595947847</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0002726389038476836</v>
+        <v>-0.06427563470148839</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.1078735779131556</v>
+        <v>0.2586096398149271</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>2.49084291378744E-11</v>
+        <v>0.1102726332407875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.8860174228647901</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.02899888781830578</v>
+        <v>0.007419887593253347</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7792597736487796</v>
+        <v>0.8077329722011638</v>
       </c>
     </row>
   </sheetData>

--- a/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-factor-calibrations.xlsx
+++ b/data/financial_time_series_data/financial_time_series_calibrations/lead-riskDriverType-PnL-factor-calibrations.xlsx
@@ -42,7 +42,7 @@
     <t>abs_epsi_autocorr</t>
   </si>
   <si>
-    <t>[1.0, 0.275705054056148, 0.2208689431034171, 0.2446441446296424, 0.21965573342552783, 0.45039648787823416, 0.22322631753267497, 0.17829456991036335, 0.20361838270477414, 0.16864611601188503, 0.16274842939876874, 0.11244403587872488, 0.12681062917433916, 0.16820412158963902, 0.1725092612066047, 0.13052782616264305, 0.12997100497246106, 0.12184420457526338, 0.13471377414492197, 0.13825366197893893]</t>
+    <t>[1.0, 0.27570505405614787, 0.22086894310341706, 0.24464414462964246, 0.21965573342552777, 0.4503964878782342, 0.22322631753267502, 0.17829456991036335, 0.2036183827047741, 0.16864611601188506, 0.16274842939876877, 0.11244403587872491, 0.12681062917433913, 0.1682041215896391, 0.17250926120660476, 0.13052782616264302, 0.129971004972461, 0.12184420457526332, 0.13471377414492205, 0.13825366197893899]</t>
   </si>
   <si>
     <t>c</t>
@@ -69,7 +69,7 @@
     <t>sig2_1</t>
   </si>
   <si>
-    <t>[1.0, 0.2739530517359736, 0.2224915077367662, 0.2536163616061678, 0.24307049246815776, 0.3371226102159966, 0.2013129362220637, 0.16768742913364268, 0.17404639480184256, 0.16401359531854975, 0.16960940966295726, 0.12399317532924053, 0.12755655395776289, 0.1341383400555717, 0.13251755700719617, 0.11120849860614665, 0.1308505205751499, 0.08973544661224055, 0.11059761629985555, 0.14218000607443212]</t>
+    <t>[1.0, 0.2739530517359741, 0.22249150773676657, 0.25361636160616824, 0.24307049246815787, 0.3371226102159967, 0.2013129362220638, 0.16768742913364268, 0.17404639480184264, 0.16401359531854998, 0.16960940966295748, 0.12399317532924065, 0.12755655395776297, 0.13413834005557182, 0.1325175570071962, 0.11120849860614668, 0.13085052057514998, 0.08973544661224073, 0.11059761629985566, 0.14218000607443226]</t>
   </si>
   <si>
     <t>omega</t>
@@ -81,16 +81,16 @@
     <t>beta</t>
   </si>
   <si>
-    <t>[1.0, 0.017954617471897607, -0.02269678883968538, -0.016664094552898457, -0.03995012981988733, 0.30743984014274184, 0.002661443544310895, 0.0008193156949588996, 0.0068745078158507795, -0.040667503721164365, -0.06303825613328595, -0.06975543440111025, -0.04480606904798816, -0.003656602177575346, 0.011974541158367274, -0.027434005015989013, -0.032327166946387646, -0.04714387313833362, -0.043138765816501695, -0.04973842852195918]</t>
+    <t>[1.0, 0.017954639512965016, -0.022696772715380675, -0.016664079496632206, -0.039950115685167376, 0.3074398421427314, 0.0026614494733391125, 0.0008193239327942608, 0.006874505597866775, -0.04066750749441699, -0.06303826172242204, -0.0697554415736309, -0.04480607221524703, -0.0036566132521521333, 0.011974524858373628, -0.027434015474396563, -0.0323271795094081, -0.047143879530065026, -0.04313877828287503, -0.04973844258993052]</t>
   </si>
   <si>
     <t>gamma</t>
   </si>
   <si>
-    <t>[1.0, 0.016293295128490586, -0.022296880341892932, -0.016771700679996317, -0.04070812889552454, 0.3068440952239229, 0.003985903777195831, 0.002028727930121994, 0.007509245779219818, -0.040328067073641914, -0.06352310480717599, -0.06910382110981665, -0.044537964711827895, -0.002720803709117024, 0.01377814692061423, -0.02603552927779307, -0.03196739560762685, -0.047133636081276006, -0.0429014761511698, -0.04858436592152345]</t>
-  </si>
-  <si>
-    <t>[1.0, 0.02845062759557058, -0.013212133038455878, 0.012091315094959683, -0.03250494283638258, 0.2469566830443298, 0.006053571416459681, -0.0019865960400446015, -0.005487518425938155, -0.04645540813986593, -0.035317120333900796, -0.05756204350142196, -0.03611024729303446, -0.015211551946075798, 0.011112813821146508, -0.040169679848970026, -0.03295441395979722, -0.037048078646522854, -0.03312443051899934, -0.034632428944231214]</t>
+    <t>[1.0, 0.016293295128490575, -0.022296880341892922, -0.01677170067999633, -0.04070812889552455, 0.30684409522392286, 0.003985903777195839, 0.0020287279301219995, 0.007509245779219832, -0.0403280670736419, -0.06352310480717598, -0.06910382110981664, -0.04453796471182792, -0.0027208037091170337, 0.013778146920614213, -0.02603552927779307, -0.03196739560762684, -0.047133636081276006, -0.042901476151169786, -0.048584365921523466]</t>
+  </si>
+  <si>
+    <t>[1.0, 0.028450646956896947, -0.013212119415820059, 0.01209132965722076, -0.032504931783143454, 0.2469566808495482, 0.00605357589991658, -0.001986592864379366, -0.005487519187365042, -0.04645540918517382, -0.035317120696140174, -0.05756204443106392, -0.03611024911438837, -0.015211557502937964, 0.011112805662733077, -0.04016968597179796, -0.032954420358019994, -0.03704808129032097, -0.033124435789733134, -0.03463243434398981]</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.02613277658711496</v>
+        <v>-0.02613277658711533</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.8301829873809643</v>
+        <v>0.8301829873809642</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>32.32452110185174</v>
+        <v>32.32452110185173</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -545,7 +545,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.9340717299578059</v>
+        <v>0.4829560949004636</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-1.648913426514714</v>
+        <v>-1.648913426514711</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.7691280218622456</v>
+        <v>0.7691280218622448</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>25.88846556954054</v>
+        <v>25.88846556954055</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -577,7 +577,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>1.467849337606879</v>
+        <v>1.467849337606878</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -585,7 +585,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7692302244151693</v>
+        <v>0.7692302244151689</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -627,7 +627,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.004578046838512801</v>
+        <v>-0.004577965521380854</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -635,7 +635,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2711836398779733</v>
+        <v>0.2711832893052016</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -643,7 +643,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1154968220522724</v>
+        <v>0.1154967855109827</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -651,7 +651,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8845031787451064</v>
+        <v>0.8845032161856554</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.04900101981963107</v>
+        <v>-0.04900101981963102</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.06427563470148839</v>
+        <v>-0.06427558511117802</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -767,7 +767,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.2586096398149271</v>
+        <v>0.2586095229256716</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -775,7 +775,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.1102726332407875</v>
+        <v>0.1102726226024434</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.8860174228647901</v>
+        <v>0.8860174448146444</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -799,7 +799,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.007419887593253347</v>
+        <v>0.007419865197518395</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -815,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.8077329722011638</v>
+        <v>0.8077329608525249</v>
       </c>
     </row>
   </sheetData>
